--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EFADE3-9918-4E17-AECF-189C8B86D6E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21175E4F-F349-4003-A9A6-EF99EE83CE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
   <si>
     <t>Wg</t>
   </si>
@@ -92,6 +93,12 @@
   </si>
   <si>
     <t>NGC-3477/T1859</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2653</t>
   </si>
 </sst>
 </file>
@@ -516,7 +523,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8CD95-9F65-4D3B-B38B-7AA37A3A2A3A}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -820,4 +827,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AD7AA2-7DBE-4C3D-9B1A-9D5EDD9050EF}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21175E4F-F349-4003-A9A6-EF99EE83CE9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC88A91B-0569-4304-A2F2-7A769EC50989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -99,6 +100,12 @@
   </si>
   <si>
     <t>NGC-3476/T2653</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2459</t>
   </si>
 </sst>
 </file>
@@ -523,7 +530,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -833,7 +840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AD7AA2-7DBE-4C3D-9B1A-9D5EDD9050EF}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -934,4 +941,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC695D47-8B9A-4546-9821-63D45A957A92}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC88A91B-0569-4304-A2F2-7A769EC50989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E5512B-5079-473F-B55B-A91C7517D41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -106,6 +107,12 @@
   </si>
   <si>
     <t>NGC-3479/T2459</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3236/T3235</t>
   </si>
 </sst>
 </file>
@@ -947,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC695D47-8B9A-4546-9821-63D45A957A92}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1048,4 +1055,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313335B1-1D96-4A27-AC15-AC75A030C360}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E5512B-5079-473F-B55B-A91C7517D41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED08EEF-B3F5-428B-AB09-78DDD13DFD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
+    <sheet name="Italy" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -113,6 +114,12 @@
   </si>
   <si>
     <t>NGC-2930/T3236/T3235</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2454/T2453</t>
   </si>
 </sst>
 </file>
@@ -537,7 +544,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313335B1-1D96-4A27-AC15-AC75A030C360}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1162,4 +1169,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FA9B7B-68A2-4403-BEA5-67749A03F314}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED08EEF-B3F5-428B-AB09-78DDD13DFD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0B81D-F6E3-494C-8712-1F4A7046950E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
+    <sheet name="Spain" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -120,6 +121,12 @@
   </si>
   <si>
     <t>NGC-3145/T2454/T2453</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2064/T2063</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
   </si>
 </sst>
 </file>
@@ -1175,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FA9B7B-68A2-4403-BEA5-67749A03F314}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1266,4 +1273,101 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6840C2BD-E522-4414-8DE0-EFA90989A83C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37F0B81D-F6E3-494C-8712-1F4A7046950E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC79023-DA29-4834-8C7D-82D8D6DA05C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -859,10 +859,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7AD7AA2-7DBE-4C3D-9B1A-9D5EDD9050EF}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,21 +936,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -966,10 +956,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC695D47-8B9A-4546-9821-63D45A957A92}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1043,21 +1033,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1279,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6840C2BD-E522-4414-8DE0-EFA90989A83C}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC79023-DA29-4834-8C7D-82D8D6DA05C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558D08C9-8732-44C7-B0CE-4CD6B62C2E3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
+    <sheet name="Croatia" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2485</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
   </si>
 </sst>
 </file>
@@ -554,15 +561,15 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -570,7 +577,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -582,7 +589,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -592,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -604,41 +611,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -661,15 +668,15 @@
       <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -677,7 +684,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -689,7 +696,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -699,7 +706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -711,31 +718,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -758,15 +765,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.08984375" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -774,7 +781,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -786,7 +793,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -808,41 +815,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -865,15 +872,15 @@
       <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.90625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -881,7 +888,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -893,7 +900,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -903,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,31 +922,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -958,19 +965,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC695D47-8B9A-4546-9821-63D45A957A92}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -978,7 +985,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -990,7 +997,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1000,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1012,31 +1019,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1059,15 +1066,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1075,7 +1082,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1087,7 +1094,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1097,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1109,41 +1116,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1166,15 +1173,15 @@
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.6328125" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1182,7 +1189,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1194,7 +1201,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1204,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1216,31 +1223,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1260,18 +1267,18 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1279,7 +1286,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1291,7 +1298,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1313,31 +1320,128 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439EB745-03A0-4B3A-96A8-CAA71A6FB17D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558D08C9-8732-44C7-B0CE-4CD6B62C2E3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F063D6-0770-4B16-86AB-71607E438D7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Croatia" sheetId="21" r:id="rId9"/>
+    <sheet name="Greece" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -134,6 +135,12 @@
   </si>
   <si>
     <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3189</t>
   </si>
 </sst>
 </file>
@@ -561,15 +568,15 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -577,7 +584,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +596,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -599,7 +606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -611,42 +618,139 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857E3ABF-027F-4668-B7DD-BE8EEEF7A285}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -668,15 +772,15 @@
       <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -684,7 +788,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -696,7 +800,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -706,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -718,31 +822,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -765,15 +869,15 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -781,7 +885,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -793,7 +897,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,7 +907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -815,41 +919,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -872,15 +976,15 @@
       <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.90625" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -888,7 +992,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -900,7 +1004,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -910,7 +1014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,31 +1026,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -969,15 +1073,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -985,7 +1089,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -997,7 +1101,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,31 +1123,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1066,15 +1170,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1082,7 +1186,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +1198,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1104,7 +1208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1116,41 +1220,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1173,15 +1277,15 @@
       <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1293,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1201,7 +1305,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1223,31 +1327,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1270,15 +1374,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1286,7 +1390,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1298,7 +1402,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1308,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1320,31 +1424,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1363,19 +1467,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{439EB745-03A0-4B3A-96A8-CAA71A6FB17D}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1487,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1395,7 +1499,7 @@
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1405,7 +1509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1417,31 +1521,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>

--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F063D6-0770-4B16-86AB-71607E438D7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89410A-0CBB-4AF2-9461-A90A7104EFFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,9 @@
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Croatia" sheetId="21" r:id="rId9"/>
     <sheet name="Greece" sheetId="22" r:id="rId10"/>
+    <sheet name="Netherlands" sheetId="23" r:id="rId11"/>
+    <sheet name="Austria" sheetId="24" r:id="rId12"/>
+    <sheet name="Denmark" sheetId="25" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="39">
   <si>
     <t>Wg</t>
   </si>
@@ -141,6 +144,24 @@
   </si>
   <si>
     <t>NGC-4119/T3189</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2199</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2306</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2798</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -671,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857E3ABF-027F-4668-B7DD-BE8EEEF7A285}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -719,6 +740,307 @@
       </c>
       <c r="B4" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4B37BB-8172-45C2-BD03-DD1A54AF28D2}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5BD1C8-0102-4284-AF97-699B08049C91}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F6B22-7928-4A26-A275-1C5975613897}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D89410A-0CBB-4AF2-9461-A90A7104EFFD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1FDCC-2DD0-497D-9CE9-7DC371B81ED0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="12" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="Netherlands" sheetId="23" r:id="rId11"/>
     <sheet name="Austria" sheetId="24" r:id="rId12"/>
     <sheet name="Denmark" sheetId="25" r:id="rId13"/>
+    <sheet name="Russia" sheetId="27" r:id="rId14"/>
+    <sheet name="Finland" sheetId="28" r:id="rId15"/>
+    <sheet name="Hungary" sheetId="29" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="45">
   <si>
     <t>Wg</t>
   </si>
@@ -162,6 +165,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2925</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2957</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T3006</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -993,7 +1014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2F6B22-7928-4A26-A275-1C5975613897}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1048,6 +1069,294 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89E2702C-89E5-44FE-BA9F-16049E96FCF6}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741974D9-CEDF-4CBF-A9B5-F06E013E5EBE}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68463281-52A1-491B-AF95-162FB923D712}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1FDCC-2DD0-497D-9CE9-7DC371B81ED0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE32BC6D-88A0-49BE-8772-B4CFE03E4010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="15" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="Russia" sheetId="27" r:id="rId14"/>
     <sheet name="Finland" sheetId="28" r:id="rId15"/>
     <sheet name="Hungary" sheetId="29" r:id="rId16"/>
+    <sheet name="Norway" sheetId="30" r:id="rId17"/>
+    <sheet name="Poland" sheetId="31" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="49">
   <si>
     <t>Wg</t>
   </si>
@@ -183,6 +185,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3086</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3116</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1303,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68463281-52A1-491B-AF95-162FB923D712}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -1357,6 +1371,200 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0C3946-BA57-4DC0-9424-EE7AD25F0589}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C462382E-2CA6-4152-AD5D-C490DFD0EC01}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Loops_MZX_Panels.xlsx
+++ b/Test Data/Gallery_Loops_MZX_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE32BC6D-88A0-49BE-8772-B4CFE03E4010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC836DF4-7552-4DA4-AA8D-830959C36045}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="3" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="Hungary" sheetId="29" r:id="rId16"/>
     <sheet name="Norway" sheetId="30" r:id="rId17"/>
     <sheet name="Poland" sheetId="31" r:id="rId18"/>
+    <sheet name="UK" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="51">
   <si>
     <t>Wg</t>
   </si>
@@ -197,6 +198,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3352/T3357</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0C3946-BA57-4DC0-9424-EE7AD25F0589}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1603,6 +1610,103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C02E52-1776-4462-B0AF-059E60CAB324}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8CD95-9F65-4D3B-B38B-7AA37A3A2A3A}">
   <dimension ref="A1:D10"/>
